--- a/CargaSemana-Grafico.xlsx
+++ b/CargaSemana-Grafico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\opendss\SBESC-VPP-PPGES-UPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\opendss\VPP-PPGES-UPE-Art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B99AD1C0-EE7A-4293-8FB3-254AACD16038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446A732-917F-4FF5-80B1-6D144EC8F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CargaSemanaGrafico" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,6 +573,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Perfil de Carga - Residencial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,15 +1453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1760,10 +1785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
